--- a/testFile/case/user02Case.xlsx
+++ b/testFile/case/user02Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7515"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,10 @@
     <t>/login</t>
   </si>
   <si>
-    <t>name=xiaoming&amp;pwd=111</t>
+    <t>{
+ "name": "xiaoming",
+ "pwd": "111"
+}</t>
   </si>
   <si>
     <t>post</t>
@@ -49,7 +52,10 @@
     <t>login_error</t>
   </si>
   <si>
-    <t>name=xiaoming&amp;pwd=111222</t>
+    <t>{
+ "name": "xiaoming",
+ "pwd": "111222"
+}</t>
   </si>
   <si>
     <t>-1</t>
@@ -58,7 +64,10 @@
     <t>login_null</t>
   </si>
   <si>
-    <t>name=xiaoming&amp;pwd=</t>
+    <t>{
+ "name": "xiaoming",
+ "pwd": ""
+}</t>
   </si>
   <si>
     <t>10001</t>
@@ -69,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,16 +92,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,59 +154,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -167,6 +162,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,7 +199,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -185,7 +208,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,35 +231,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,49 +245,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,133 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +436,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,81 +532,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,139 +554,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -747,7 +759,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1029,13 +1041,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.75" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -1057,14 +1069,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="57.6" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1074,14 +1086,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="57.6" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1091,14 +1103,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="57.6" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
